--- a/data/processed/X_test_sin_outliers_norm.xlsx
+++ b/data/processed/X_test_sin_outliers_norm.xlsx
@@ -480,10 +480,10 @@
         <v>0.6818561213767085</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7140203750690433</v>
+        <v>-0.7463785443175232</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6171265806311522</v>
+        <v>-0.9210307621695745</v>
       </c>
       <c r="D2" t="n">
         <v>0.8171097564727196</v>
@@ -492,10 +492,10 @@
         <v>1.243689054426068</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2607356070976451</v>
+        <v>0.275946789335249</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1163724666748386</v>
+        <v>-0.08504602267095251</v>
       </c>
       <c r="H2" t="n">
         <v>0.8780908946942204</v>
@@ -506,10 +506,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2766428261419788</v>
+        <v>-0.2951485578066312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.301915686258271</v>
+        <v>0.3038028593778867</v>
       </c>
       <c r="D3" t="n">
         <v>0.7522648048798218</v>
@@ -518,10 +518,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4805351763825126</v>
+        <v>0.5189205619179259</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9542309996622795</v>
+        <v>-1.084743832136675</v>
       </c>
       <c r="H3" t="n">
         <v>-1.035940379394779</v>
@@ -532,10 +532,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.40160784012114</v>
+        <v>-0.4240714110954575</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D4" t="n">
         <v>-1.322773646092906</v>
@@ -544,10 +544,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.153004758615046</v>
+        <v>-0.1814156061144948</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9245197041662709</v>
+        <v>-1.049293555205267</v>
       </c>
       <c r="H4" t="n">
         <v>-1.035940379394779</v>
@@ -558,10 +558,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4328490936159303</v>
+        <v>-0.4563021244176641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5722222353433956</v>
+        <v>0.6640480421859635</v>
       </c>
       <c r="D5" t="n">
         <v>-1.322773646092906</v>
@@ -570,10 +570,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.954626717183385</v>
+        <v>-1.067555247298374</v>
       </c>
       <c r="G5" t="n">
-        <v>1.149328721455126</v>
+        <v>1.425135774607054</v>
       </c>
       <c r="H5" t="n">
         <v>0.0950781007487206</v>
@@ -584,10 +584,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4731472577329888</v>
+        <v>0.4783885619263264</v>
       </c>
       <c r="C6" t="n">
-        <v>1.112835333513644</v>
+        <v>1.384538407802117</v>
       </c>
       <c r="D6" t="n">
         <v>-1.322773646092906</v>
@@ -596,10 +596,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2693692364717406</v>
+        <v>-0.3100487798347357</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7700209675870267</v>
+        <v>-0.8649521151619419</v>
       </c>
       <c r="H6" t="n">
         <v>1.48710084554072</v>
@@ -610,10 +610,10 @@
         <v>0.6818561213767085</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5578141075950916</v>
+        <v>-0.5852249777064904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D7" t="n">
         <v>0.7522648048798218</v>
@@ -622,10 +622,10 @@
         <v>1.243689054426068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7391229049529446</v>
+        <v>0.8047720590740159</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4313121989325291</v>
+        <v>-0.4608189581438837</v>
       </c>
       <c r="H7" t="n">
         <v>1.92210795328822</v>
@@ -636,10 +636,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.557534219428382</v>
+        <v>-1.616607804017101</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.157739678801401</v>
+        <v>-1.641521127785728</v>
       </c>
       <c r="D8" t="n">
         <v>-0.1555645174207464</v>
@@ -648,10 +648,10 @@
         <v>0.0126387723435843</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.497660947181293</v>
+        <v>-1.667843391326163</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.43428332848213</v>
+        <v>-0.4643639858370245</v>
       </c>
       <c r="H8" t="n">
         <v>-0.9489389578452792</v>
@@ -662,10 +662,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1204365586680272</v>
+        <v>-0.1339949911955984</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D9" t="n">
         <v>-1.322773646092906</v>
@@ -674,10 +674,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2348768342406015</v>
+        <v>0.2473616396196396</v>
       </c>
       <c r="G9" t="n">
-        <v>1.375134567224791</v>
+        <v>1.69455787928576</v>
       </c>
       <c r="H9" t="n">
         <v>0.9650923162437204</v>
@@ -688,10 +688,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B10" t="n">
-        <v>1.035489820639214</v>
+        <v>1.058541401726045</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D10" t="n">
         <v>0.5577299501011287</v>
@@ -700,10 +700,10 @@
         <v>0.5525731065902878</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08835782647243796</v>
+        <v>-0.1099527318254724</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3897163852381171</v>
+        <v>-0.4111885704399116</v>
       </c>
       <c r="H10" t="n">
         <v>0.3560823653972205</v>
@@ -714,10 +714,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8168010461756823</v>
+        <v>0.8329264084705986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D11" t="n">
         <v>-1.322773646092906</v>
@@ -726,10 +726,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2219474478120807</v>
+        <v>0.2330690647618359</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7462519311902198</v>
+        <v>-0.836591893616815</v>
       </c>
       <c r="H11" t="n">
         <v>2.79212216878322</v>
@@ -740,10 +740,10 @@
         <v>1.890109104133704</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3078840796367691</v>
+        <v>-0.3273792711288378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D12" t="n">
         <v>0.4280400469153331</v>
@@ -752,10 +752,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5796745107562589</v>
+        <v>-0.6530705764220435</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9750289065094855</v>
+        <v>-1.109559025988661</v>
       </c>
       <c r="H12" t="n">
         <v>0.6170866300457205</v>
@@ -766,10 +766,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B13" t="n">
-        <v>1.816521158008972</v>
+        <v>1.864309234781209</v>
       </c>
       <c r="C13" t="n">
-        <v>1.383141882598769</v>
+        <v>1.744783590610194</v>
       </c>
       <c r="D13" t="n">
         <v>0.6874198532869241</v>
@@ -778,10 +778,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2865943799546887</v>
+        <v>0.3045319390508585</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9066929268686658</v>
+        <v>-1.028023389046421</v>
       </c>
       <c r="H13" t="n">
         <v>2.35711506103572</v>
@@ -792,10 +792,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8480422996704726</v>
+        <v>0.8651571217928052</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D14" t="n">
         <v>0.4280400469153331</v>
@@ -804,10 +804,10 @@
         <v>2.625920950097629</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1400753721865246</v>
+        <v>-0.1671230312566906</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9482887405630778</v>
+        <v>-1.077653776750394</v>
       </c>
       <c r="H14" t="n">
         <v>-0.3399290069987793</v>
@@ -818,10 +818,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7765028820586238</v>
+        <v>-0.8108399709619364</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D15" t="n">
         <v>-0.1555645174207464</v>
@@ -830,10 +830,10 @@
         <v>-0.08454940782082232</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2090180613835589</v>
+        <v>0.2187764899040312</v>
       </c>
       <c r="G15" t="n">
-        <v>1.568257987948846</v>
+        <v>1.924984679339915</v>
       </c>
       <c r="H15" t="n">
         <v>0.8780908946942204</v>
@@ -844,10 +844,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.026432910016946</v>
+        <v>-1.068685677539589</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6171265806311522</v>
+        <v>-0.9210307621695745</v>
       </c>
       <c r="D16" t="n">
         <v>0.3631950953224354</v>
@@ -856,10 +856,10 @@
         <v>-0.6352824287524599</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4633100328995646</v>
+        <v>-0.5244374027018032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8819270619910488</v>
+        <v>1.106083282224377</v>
       </c>
       <c r="H16" t="n">
         <v>-0.9489389578452792</v>
@@ -870,10 +870,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1294934692902953</v>
+        <v>0.1238507153820542</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.049617059167351</v>
+        <v>-1.497423054662497</v>
       </c>
       <c r="D17" t="n">
         <v>1.271024417623004</v>
@@ -882,10 +882,10 @@
         <v>0.9953192606725846</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1702299020979935</v>
+        <v>0.1758987653306171</v>
       </c>
       <c r="G17" t="n">
-        <v>1.464268453712816</v>
+        <v>1.800908710079985</v>
       </c>
       <c r="H17" t="n">
         <v>-0.4269304285482792</v>
@@ -896,10 +896,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.151397923996108</v>
+        <v>-1.197608530828415</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D18" t="n">
         <v>0.7522648048798218</v>
@@ -908,10 +908,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6744759728103367</v>
+        <v>0.7333091847849934</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6006665832597778</v>
+        <v>-0.6628855366529127</v>
       </c>
       <c r="H18" t="n">
         <v>-0.4269304285482792</v>
@@ -922,10 +922,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.088915417006527</v>
+        <v>-1.133147104184002</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.07651348246090327</v>
+        <v>-0.2005403965534209</v>
       </c>
       <c r="D19" t="n">
         <v>0.4928849985082309</v>
@@ -934,10 +934,10 @@
         <v>-0.04135466108108604</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2305810771861757</v>
+        <v>-0.2671710552613221</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.312467016948495</v>
+        <v>-0.3190178504182493</v>
       </c>
       <c r="H19" t="n">
         <v>-0.7749361147462792</v>
@@ -948,10 +948,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B20" t="n">
-        <v>1.941486171988134</v>
+        <v>1.993232088070035</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D20" t="n">
         <v>-1.322773646092906</v>
@@ -960,10 +960,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4633100328995646</v>
+        <v>-0.5244374027018032</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.764078708487825</v>
+        <v>-0.8578620597756601</v>
       </c>
       <c r="H20" t="n">
         <v>0.2690809438477206</v>
@@ -974,10 +974,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5981122717121501</v>
+        <v>0.6073114152151526</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.238697411911978</v>
+        <v>-0.4166875062382669</v>
       </c>
       <c r="D21" t="n">
         <v>0.3631950953224354</v>
@@ -986,10 +986,10 @@
         <v>0.595767853330024</v>
       </c>
       <c r="F21" t="n">
-        <v>1.372662839950503</v>
+        <v>1.505108227106436</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1134013371252377</v>
+        <v>-0.08150099497781166</v>
       </c>
       <c r="H21" t="n">
         <v>-0.7749361147462792</v>
@@ -1000,10 +1000,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.5265728541003013</v>
+        <v>-0.5529942643842838</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D22" t="n">
         <v>-1.322773646092906</v>
@@ -1012,10 +1012,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4115924871854779</v>
+        <v>-0.4672671032705848</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.9393753519142752</v>
+        <v>-1.067018693670971</v>
       </c>
       <c r="H22" t="n">
         <v>1.31309800244172</v>
@@ -1026,10 +1026,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.026432910016946</v>
+        <v>-1.068685677539589</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D23" t="n">
         <v>0.5577299501011287</v>
@@ -1038,10 +1038,10 @@
         <v>0.0126387723435843</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00214787852721313</v>
+        <v>-0.009904707820840955</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.3094958873988941</v>
+        <v>-0.3154728227251085</v>
       </c>
       <c r="H23" t="n">
         <v>-0.3399290069987793</v>
@@ -1052,10 +1052,10 @@
         <v>2.796298841201451</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4640903471107207</v>
+        <v>-0.4885328377398707</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D24" t="n">
         <v>2.178853739923572</v>
@@ -1064,10 +1064,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5968996542392069</v>
+        <v>0.6475537356381662</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.865097113174254</v>
+        <v>-0.9783930013424494</v>
       </c>
       <c r="H24" t="n">
         <v>1.05209373779322</v>
@@ -1078,10 +1078,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.7765028820586238</v>
+        <v>-0.8108399709619364</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D25" t="n">
         <v>0.4280400469153331</v>
@@ -1090,10 +1090,10 @@
         <v>0.1314243258778591</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1573005156694727</v>
+        <v>0.1616061904728134</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.5353017331685591</v>
+        <v>-0.5848949274038139</v>
       </c>
       <c r="H25" t="n">
         <v>-1.035940379394779</v>
@@ -1104,10 +1104,10 @@
         <v>1.890109104133704</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2544584832694566</v>
+        <v>0.2527735686708804</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D26" t="n">
         <v>0.4928849985082309</v>
@@ -1116,10 +1116,10 @@
         <v>0.5093783598505515</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5063939492395553</v>
+        <v>0.5475057116335343</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5620418991149667</v>
+        <v>-0.6168001766420815</v>
       </c>
       <c r="H26" t="n">
         <v>0.5300852084962205</v>
@@ -1130,10 +1130,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B27" t="n">
-        <v>1.972727425482924</v>
+        <v>2.025462801392242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7884674746114951</v>
+        <v>0.952244188432425</v>
       </c>
       <c r="D27" t="n">
         <v>0.8171097564727196</v>
@@ -1142,10 +1142,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4546764035254691</v>
+        <v>0.4903354122023165</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3392071828949027</v>
+        <v>-0.3509230996565171</v>
       </c>
       <c r="H27" t="n">
         <v>0.7040880515952205</v>
@@ -1156,10 +1156,10 @@
         <v>0.6818561213767085</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3703665866263497</v>
+        <v>-0.3918406977732509</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D28" t="n">
         <v>0.4280400469153331</v>
@@ -1168,10 +1168,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.9029091714692988</v>
+        <v>-1.010384947867156</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7819054857854302</v>
+        <v>-0.8791322259345054</v>
       </c>
       <c r="H28" t="n">
         <v>-0.5139318500977792</v>
@@ -1182,10 +1182,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6515378680794626</v>
+        <v>-0.68191711767311</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D29" t="n">
         <v>-0.5446342269781328</v>
@@ -1194,10 +1194,10 @@
         <v>-0.3113218282044378</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.614025425037987</v>
+        <v>-1.796476565046403</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.9512598701126787</v>
+        <v>-1.081198804443535</v>
       </c>
       <c r="H29" t="n">
         <v>-0.4269304285482792</v>
@@ -1208,10 +1208,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.589055361089882</v>
+        <v>-0.6174556910286969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8965900942455449</v>
+        <v>1.096342261555656</v>
       </c>
       <c r="D30" t="n">
         <v>1.011644611251413</v>
@@ -1220,10 +1220,10 @@
         <v>0.4877809864806834</v>
       </c>
       <c r="F30" t="n">
-        <v>1.747615046377629</v>
+        <v>1.919592897982767</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.016624720203898</v>
+        <v>-1.159189413692633</v>
       </c>
       <c r="H30" t="n">
         <v>-0.8619375362957792</v>
@@ -1234,10 +1234,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.995191656522156</v>
+        <v>-1.036454964217382</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D31" t="n">
         <v>-0.2852544206065419</v>
@@ -1246,10 +1246,10 @@
         <v>0.1098269525079909</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2047223043291326</v>
+        <v>-0.2385859055457132</v>
       </c>
       <c r="G31" t="n">
-        <v>0.243134208826865</v>
+        <v>0.3439023281990918</v>
       </c>
       <c r="H31" t="n">
         <v>0.4430837869467205</v>
@@ -1260,10 +1260,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B32" t="n">
-        <v>1.285419848597537</v>
+        <v>1.316387108303697</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D32" t="n">
         <v>2.308543643109367</v>
@@ -1272,10 +1272,10 @@
         <v>0.271807252782002</v>
       </c>
       <c r="F32" t="n">
-        <v>2.743177801373792</v>
+        <v>2.641367928301894</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8611291551438427</v>
+        <v>1.081268088372391</v>
       </c>
       <c r="H32" t="n">
         <v>-0.6879346931967791</v>
@@ -1286,10 +1286,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B33" t="n">
-        <v>0.785559792680892</v>
+        <v>0.8006956951483921</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D33" t="n">
         <v>-1.322773646092906</v>
@@ -1298,10 +1298,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8425579963811171</v>
+        <v>0.9191126579364515</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1510291927892385</v>
+        <v>0.234006469711725</v>
       </c>
       <c r="H33" t="n">
         <v>2.96612501188222</v>
@@ -1312,10 +1312,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B34" t="n">
-        <v>1.972727425482924</v>
+        <v>2.025462801392242</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D34" t="n">
         <v>1.206179466030106</v>
@@ -1324,10 +1324,10 @@
         <v>2.183174796015332</v>
       </c>
       <c r="F34" t="n">
-        <v>0.648617199953293</v>
+        <v>0.704724035069384</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6095799719085804</v>
+        <v>-0.6735206197323353</v>
       </c>
       <c r="H34" t="n">
         <v>-0.1659261638997793</v>
@@ -1338,10 +1338,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B35" t="n">
-        <v>1.441626116071489</v>
+        <v>1.47754067491473</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D35" t="n">
         <v>-1.322773646092906</v>
@@ -1350,10 +1350,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04093603781277756</v>
+        <v>0.03297301675257214</v>
       </c>
       <c r="G35" t="n">
-        <v>1.098819519111911</v>
+        <v>1.364870303823659</v>
       </c>
       <c r="H35" t="n">
         <v>-0.2529275854492793</v>
@@ -1364,10 +1364,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3703665866263497</v>
+        <v>-0.3918406977732509</v>
       </c>
       <c r="C36" t="n">
-        <v>1.220957953147694</v>
+        <v>1.528636480925348</v>
       </c>
       <c r="D36" t="n">
         <v>-1.322773646092906</v>
@@ -1376,10 +1376,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F36" t="n">
-        <v>1.385592226379025</v>
+        <v>1.519400801964241</v>
       </c>
       <c r="G36" t="n">
-        <v>1.116646296409516</v>
+        <v>1.386140469982505</v>
       </c>
       <c r="H36" t="n">
         <v>1.83510653173872</v>
@@ -1390,10 +1390,10 @@
         <v>1.588045858444455</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9730073136496339</v>
+        <v>0.9940799750816315</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D37" t="n">
         <v>0.8819547080656173</v>
@@ -1402,10 +1402,10 @@
         <v>1.038514007412321</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2865943799546887</v>
+        <v>0.3045319390508585</v>
       </c>
       <c r="G37" t="n">
-        <v>1.259260514790357</v>
+        <v>1.556301799253266</v>
       </c>
       <c r="H37" t="n">
         <v>0.008076679199220628</v>
@@ -1416,10 +1416,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B38" t="n">
-        <v>2.378863720915198</v>
+        <v>2.444462074580927</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D38" t="n">
         <v>3.864822481338913</v>
@@ -1428,10 +1428,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3512413120972966</v>
+        <v>0.3759948133398809</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3144413180172853</v>
+        <v>0.4289829928344722</v>
       </c>
       <c r="H38" t="n">
         <v>2.53111790413472</v>
@@ -1442,10 +1442,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3703665866263497</v>
+        <v>-0.3918406977732509</v>
       </c>
       <c r="C39" t="n">
-        <v>1.004712713879595</v>
+        <v>1.240440334678886</v>
       </c>
       <c r="D39" t="n">
         <v>0.6225749016940264</v>
@@ -1454,10 +1454,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06679481066982113</v>
+        <v>0.06155816646818154</v>
       </c>
       <c r="G39" t="n">
-        <v>1.146357591905525</v>
+        <v>1.421590746913913</v>
       </c>
       <c r="H39" t="n">
         <v>0.4430837869467205</v>
@@ -1468,10 +1468,10 @@
         <v>2.494235595512202</v>
       </c>
       <c r="B40" t="n">
-        <v>0.004528455311134083</v>
+        <v>-0.005072137906772124</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D40" t="n">
         <v>-0.2204094690136442</v>
@@ -1480,10 +1480,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.7089683750414748</v>
+        <v>-0.7959963250000884</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6244356196565847</v>
+        <v>-0.6912457581980397</v>
       </c>
       <c r="H40" t="n">
         <v>2.53111790413472</v>
@@ -1494,10 +1494,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3169409902590373</v>
+        <v>0.3172349953152936</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D41" t="n">
         <v>-1.322773646092906</v>
@@ -1506,10 +1506,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F41" t="n">
-        <v>1.450239158521633</v>
+        <v>1.590863676253263</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.5917531946109752</v>
+        <v>-0.6522504535734901</v>
       </c>
       <c r="H41" t="n">
         <v>-0.6009332716472792</v>
@@ -1520,10 +1520,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.120156670501317</v>
+        <v>-1.165377817506209</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6171265806311522</v>
+        <v>-0.9210307621695745</v>
       </c>
       <c r="D42" t="n">
         <v>0.1038152889508445</v>
@@ -1532,10 +1532,10 @@
         <v>-0.2789257681496355</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.540886351470694</v>
+        <v>-0.6101928518486298</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4847925308253446</v>
+        <v>-0.5246294566204193</v>
       </c>
       <c r="H42" t="n">
         <v>-0.4269304285482792</v>
@@ -1546,10 +1546,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4419060042381985</v>
+        <v>0.4461578486041198</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.8333718198992519</v>
+        <v>-1.209226908416036</v>
       </c>
       <c r="D43" t="n">
         <v>-1.322773646092906</v>
@@ -1558,10 +1558,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6831096021844317</v>
+        <v>-0.7674111752844796</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6472078275725813</v>
+        <v>0.8260260944662489</v>
       </c>
       <c r="H43" t="n">
         <v>2.53111790413472</v>
@@ -1572,10 +1572,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.3703665866263497</v>
+        <v>-0.3918406977732509</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301915686258271</v>
+        <v>0.3038028593778867</v>
       </c>
       <c r="D44" t="n">
         <v>0.3631950953224354</v>
@@ -1584,10 +1584,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5193233356680771</v>
+        <v>0.561798286491339</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2282785610788607</v>
+        <v>0.3261771897333875</v>
       </c>
       <c r="H44" t="n">
         <v>2.35711506103572</v>
@@ -1598,10 +1598,10 @@
         <v>2.796298841201451</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.5265728541003013</v>
+        <v>-0.5529942643842838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D45" t="n">
         <v>-1.322773646092906</v>
@@ -1610,10 +1610,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1012872129009598</v>
+        <v>-0.124245306683277</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01238293243880854</v>
+        <v>0.03902994658897771</v>
       </c>
       <c r="H45" t="n">
         <v>0.4430837869467205</v>
@@ -1624,10 +1624,10 @@
         <v>0.6818561213767085</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.9014678960377851</v>
+        <v>-0.9397628242507626</v>
       </c>
       <c r="C46" t="n">
-        <v>1.220957953147694</v>
+        <v>1.528636480925348</v>
       </c>
       <c r="D46" t="n">
         <v>-1.322773646092906</v>
@@ -1636,10 +1636,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.5623078793239</v>
+        <v>-1.739306265615186</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8353858176782454</v>
+        <v>-0.9429427244110408</v>
       </c>
       <c r="H46" t="n">
         <v>-0.4269304285482792</v>
@@ -1650,10 +1650,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B47" t="n">
-        <v>1.160454834618376</v>
+        <v>1.187464255014871</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D47" t="n">
         <v>1.011644611251413</v>
@@ -1662,10 +1662,10 @@
         <v>1.837616822097442</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.04956966718687308</v>
+        <v>-0.06707500725205875</v>
       </c>
       <c r="G47" t="n">
-        <v>1.134473073707121</v>
+        <v>1.40741063614135</v>
       </c>
       <c r="H47" t="n">
         <v>-0.4269304285482792</v>
@@ -1676,10 +1676,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3078840796367691</v>
+        <v>-0.3273792711288378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D48" t="n">
         <v>1.724939078773288</v>
@@ -1688,10 +1688,10 @@
         <v>1.427266728069947</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6615465863818148</v>
+        <v>0.7190166099271887</v>
       </c>
       <c r="G48" t="n">
-        <v>2.735911900941982</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H48" t="n">
         <v>2.00910937483772</v>
@@ -1702,10 +1702,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8077441355534142</v>
+        <v>-0.8430706842841429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D49" t="n">
         <v>0.8171097564727196</v>
@@ -1714,10 +1714,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7391229049529446</v>
+        <v>0.8047720590740159</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.2946402396508898</v>
+        <v>-0.2977476842594042</v>
       </c>
       <c r="H49" t="n">
         <v>-0.5139318500977792</v>
@@ -1728,10 +1728,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2766428261419788</v>
+        <v>-0.2951485578066312</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D50" t="n">
         <v>-1.322773646092906</v>
@@ -1740,10 +1740,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.083920581468601</v>
+        <v>-1.210480995876419</v>
       </c>
       <c r="G50" t="n">
-        <v>1.101790648661512</v>
+        <v>1.3684153315168</v>
       </c>
       <c r="H50" t="n">
         <v>2.18311221793672</v>
@@ -1754,10 +1754,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B51" t="n">
-        <v>1.629073637040231</v>
+        <v>1.670924954847969</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D51" t="n">
         <v>0.7522648048798218</v>
@@ -1766,10 +1766,10 @@
         <v>2.053590555796123</v>
       </c>
       <c r="F51" t="n">
-        <v>1.876908910662845</v>
+        <v>2.062518646560811</v>
       </c>
       <c r="G51" t="n">
-        <v>2.049580974984185</v>
+        <v>2.499279165628735</v>
       </c>
       <c r="H51" t="n">
         <v>2.18311221793672</v>
@@ -1780,10 +1780,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8389853890482045</v>
+        <v>-0.8753013976063495</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.238697411911978</v>
+        <v>-0.4166875062382669</v>
       </c>
       <c r="D52" t="n">
         <v>0.1038152889508445</v>
@@ -1792,10 +1792,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9416973307548637</v>
+        <v>-1.05326267244057</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.9542309996622795</v>
+        <v>-1.084743832136675</v>
       </c>
       <c r="H52" t="n">
         <v>-1.035940379394779</v>
@@ -1806,10 +1806,10 @@
         <v>1.588045858444455</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7543185391861017</v>
+        <v>0.7684649818261855</v>
       </c>
       <c r="C53" t="n">
-        <v>1.004712713879595</v>
+        <v>1.240440334678886</v>
       </c>
       <c r="D53" t="n">
         <v>0.8819547080656173</v>
@@ -1818,10 +1818,10 @@
         <v>0.9737218873027165</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.2176516907576539</v>
+        <v>-0.2528784804035173</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8967827097390531</v>
+        <v>1.123808420690081</v>
       </c>
       <c r="H53" t="n">
         <v>1.74810511018922</v>
@@ -1832,10 +1832,10 @@
         <v>2.494235595512202</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5981122717121501</v>
+        <v>0.6073114152151526</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6803448549774453</v>
+        <v>0.8081461153091942</v>
       </c>
       <c r="D54" t="n">
         <v>1.465559272401697</v>
@@ -1844,10 +1844,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9330637013807687</v>
+        <v>1.019160681941083</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1747982291860453</v>
+        <v>0.2623666912568519</v>
       </c>
       <c r="H54" t="n">
         <v>2.18311221793672</v>
@@ -1858,10 +1858,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4106647507434082</v>
+        <v>0.4139271352819133</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D55" t="n">
         <v>-1.322773646092906</v>
@@ -1870,10 +1870,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.3986631007569566</v>
+        <v>-0.4529745284127806</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2163940428804573</v>
+        <v>0.311997078960824</v>
       </c>
       <c r="H55" t="n">
         <v>-0.8619375362957792</v>
@@ -1884,10 +1884,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5668710182173597</v>
+        <v>0.5750807018929461</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.4008813413630526</v>
+        <v>-0.6328346159231131</v>
       </c>
       <c r="D56" t="n">
         <v>-0.2204094690136442</v>
@@ -1896,10 +1896,10 @@
         <v>1.459662788124749</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.277861377896425</v>
+        <v>-1.424869618743486</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.7789343562358293</v>
+        <v>-0.8755871982413644</v>
       </c>
       <c r="H56" t="n">
         <v>-1.035940379394779</v>
@@ -1910,10 +1910,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.463810458944011</v>
+        <v>-1.519915664050481</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.07651348246090327</v>
+        <v>-0.2005403965534209</v>
       </c>
       <c r="D57" t="n">
         <v>0.4928849985082309</v>
@@ -1922,10 +1922,10 @@
         <v>-0.3221205148893718</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2952280093287837</v>
+        <v>-0.3386339295503445</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.5234172149701557</v>
+        <v>-0.5707148166312505</v>
       </c>
       <c r="H57" t="n">
         <v>-0.8619375362957792</v>
@@ -1936,10 +1936,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B58" t="n">
-        <v>1.160454834618376</v>
+        <v>1.187464255014871</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D58" t="n">
         <v>-1.322773646092906</v>
@@ -1948,10 +1948,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.282298622900262</v>
+        <v>-0.3243413546925398</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7789343562358293</v>
+        <v>-0.8755871982413644</v>
       </c>
       <c r="H58" t="n">
         <v>2.61811932568422</v>
@@ -1962,10 +1962,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.276362937975269</v>
+        <v>-1.326531384117241</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D59" t="n">
         <v>-1.322773646092906</v>
@@ -1974,10 +1974,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F59" t="n">
-        <v>-4.135255778599698</v>
+        <v>-2.67546991880138</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.8769816313726574</v>
+        <v>-0.9925731121150129</v>
       </c>
       <c r="H59" t="n">
         <v>-0.9489389578452792</v>
@@ -1988,10 +1988,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B60" t="n">
-        <v>0.004528455311134083</v>
+        <v>-0.005072137906772124</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D60" t="n">
         <v>0.7522648048798218</v>
@@ -2000,10 +2000,10 @@
         <v>0.2178138193573316</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9201343149522468</v>
+        <v>1.004868107083279</v>
       </c>
       <c r="G60" t="n">
-        <v>1.238462607943151</v>
+        <v>1.53148660540128</v>
       </c>
       <c r="H60" t="n">
         <v>-0.8619375362957792</v>
@@ -2014,10 +2014,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B61" t="n">
-        <v>1.472867369566279</v>
+        <v>1.509771388236937</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D61" t="n">
         <v>-1.322773646092906</v>
@@ -2026,10 +2026,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1185123563839073</v>
+        <v>0.1187284658993993</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.9928556838070907</v>
+        <v>-1.130829192147506</v>
       </c>
       <c r="H61" t="n">
         <v>0.7040880515952205</v>
@@ -2040,10 +2040,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B62" t="n">
-        <v>1.035489820639214</v>
+        <v>1.058541401726045</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D62" t="n">
         <v>0.7522648048798218</v>
@@ -2052,10 +2052,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05386542424129934</v>
+        <v>0.04726559161037684</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0777477825300274</v>
+        <v>-0.03896066266012129</v>
       </c>
       <c r="H62" t="n">
         <v>1.05209373779322</v>
@@ -2066,10 +2066,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0357697088059244</v>
+        <v>0.02715857541543444</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D63" t="n">
         <v>0.4280400469153331</v>
@@ -2078,10 +2078,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6227584270962495</v>
+        <v>0.6761388853537746</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3837741261389154</v>
+        <v>-0.4040985150536299</v>
       </c>
       <c r="H63" t="n">
         <v>-0.5139318500977792</v>
@@ -2092,10 +2092,10 @@
         <v>0.6818561213767085</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2544584832694566</v>
+        <v>0.2527735686708804</v>
       </c>
       <c r="C64" t="n">
-        <v>1.112835333513644</v>
+        <v>1.384538407802117</v>
       </c>
       <c r="D64" t="n">
         <v>-0.8688589849426215</v>
@@ -2104,10 +2104,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.601096038609465</v>
+        <v>-1.782183990188599</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3352392248644913</v>
+        <v>0.4537981866864582</v>
       </c>
       <c r="H64" t="n">
         <v>2.35711506103572</v>
@@ -2118,10 +2118,10 @@
         <v>2.494235595512202</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9014678960377851</v>
+        <v>-0.9397628242507626</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.4008813413630526</v>
+        <v>-0.6328346159231131</v>
       </c>
       <c r="D65" t="n">
         <v>-0.8688589849426215</v>
@@ -2130,10 +2130,10 @@
         <v>1.977999749001585</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.566745124327737</v>
+        <v>-0.6387780015642387</v>
       </c>
       <c r="G65" t="n">
-        <v>1.357307789927185</v>
+        <v>1.673287713126915</v>
       </c>
       <c r="H65" t="n">
         <v>0.9650923162437204</v>
@@ -2144,10 +2144,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.151397923996108</v>
+        <v>-1.197608530828415</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6803448549774453</v>
+        <v>0.8081461153091942</v>
       </c>
       <c r="D66" t="n">
         <v>0.6874198532869241</v>
@@ -2156,10 +2156,10 @@
         <v>0.5417744199053537</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8037698370955526</v>
+        <v>0.8762349333630384</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.7016849879462069</v>
+        <v>-0.783416478219702</v>
       </c>
       <c r="H66" t="n">
         <v>-0.8619375362957792</v>
@@ -2170,10 +2170,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8168010461756823</v>
+        <v>0.8329264084705986</v>
       </c>
       <c r="C67" t="n">
-        <v>0.84252878442852</v>
+        <v>1.02429322499404</v>
       </c>
       <c r="D67" t="n">
         <v>2.178853739923572</v>
@@ -2182,10 +2182,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F67" t="n">
-        <v>1.398521612807545</v>
+        <v>1.533693376822045</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2797845919028856</v>
+        <v>-0.2800225457936998</v>
       </c>
       <c r="H67" t="n">
         <v>-0.7749361147462792</v>
@@ -2196,10 +2196,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.245121684480479</v>
+        <v>-1.294300670795035</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D68" t="n">
         <v>0.1038152889508445</v>
@@ -2208,10 +2208,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5538157378992157</v>
+        <v>-0.6244854267064345</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5323306036189582</v>
+        <v>-0.5813498997106731</v>
       </c>
       <c r="H68" t="n">
         <v>-0.6879346931967791</v>
@@ -2222,10 +2222,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5043885112277792</v>
+        <v>0.510619275248533</v>
       </c>
       <c r="C69" t="n">
-        <v>2.085938910220093</v>
+        <v>2.609372029349578</v>
       </c>
       <c r="D69" t="n">
         <v>-1.322773646092906</v>
@@ -2234,10 +2234,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F69" t="n">
-        <v>2.174284798518841</v>
+        <v>2.391247868290315</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.719511765243812</v>
+        <v>-0.8046866443785472</v>
       </c>
       <c r="H69" t="n">
         <v>0.3560823653972205</v>
@@ -2248,10 +2248,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.5265728541003013</v>
+        <v>-0.5529942643842838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D70" t="n">
         <v>-1.322773646092906</v>
@@ -2260,10 +2260,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.756248675751725</v>
+        <v>-1.953694888482253</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3352392248644913</v>
+        <v>0.4537981866864582</v>
       </c>
       <c r="H70" t="n">
         <v>-0.5139318500977792</v>
@@ -2274,10 +2274,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B71" t="n">
-        <v>1.59783238354544</v>
+        <v>1.638694241525763</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.07651348246090327</v>
+        <v>-0.2005403965534209</v>
       </c>
       <c r="D71" t="n">
         <v>1.854628981959083</v>
@@ -2286,10 +2286,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F71" t="n">
-        <v>1.346804067093459</v>
+        <v>1.476523077390827</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6917747708165939</v>
+        <v>0.8792015098633614</v>
       </c>
       <c r="H71" t="n">
         <v>-0.4269304285482792</v>
@@ -2300,10 +2300,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9105248066600533</v>
+        <v>0.9296185484372184</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1846361020949531</v>
+        <v>-0.3446384696766516</v>
       </c>
       <c r="D72" t="n">
         <v>1.400714320808799</v>
@@ -2312,10 +2312,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3512413120972966</v>
+        <v>0.3759948133398809</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7393128436102075</v>
+        <v>0.9359219529536152</v>
       </c>
       <c r="H72" t="n">
         <v>0.7910894731447204</v>
@@ -2326,10 +2326,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.182639177490898</v>
+        <v>-1.229839244150622</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8965900942455449</v>
+        <v>1.096342261555656</v>
       </c>
       <c r="D73" t="n">
         <v>-0.09071956582784869</v>
@@ -2338,10 +2338,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3469455550428699</v>
+        <v>-0.3958042289815623</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4521101057797351</v>
+        <v>-0.4856341519958697</v>
       </c>
       <c r="H73" t="n">
         <v>0.0950781007487206</v>
@@ -2352,10 +2352,10 @@
         <v>1.588045858444455</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9327091495325754</v>
+        <v>-0.9719935375729691</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.07651348246090327</v>
+        <v>-0.2005403965534209</v>
       </c>
       <c r="D74" t="n">
         <v>-1.322773646092906</v>
@@ -2364,10 +2364,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.006344262897472</v>
+        <v>-1.124725546729592</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7997322630830351</v>
+        <v>-0.9004023920933504</v>
       </c>
       <c r="H74" t="n">
         <v>2.18311221793672</v>
@@ -2378,10 +2378,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.8077441355534142</v>
+        <v>-0.8430706842841429</v>
       </c>
       <c r="C75" t="n">
-        <v>0.84252878442852</v>
+        <v>1.02429322499404</v>
       </c>
       <c r="D75" t="n">
         <v>0.2983501437295377</v>
@@ -2390,10 +2390,10 @@
         <v>-0.4193086950537785</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7003347456673793</v>
+        <v>0.7618943345006018</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6600891742517949</v>
+        <v>-0.73378609051573</v>
       </c>
       <c r="H75" t="n">
         <v>-0.7749361147462792</v>
@@ -2404,10 +2404,10 @@
         <v>0.6818561213767085</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.5578141075950916</v>
+        <v>-0.5852249777064904</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1846361020949531</v>
+        <v>-0.3446384696766516</v>
       </c>
       <c r="D76" t="n">
         <v>-1.322773646092906</v>
@@ -2416,10 +2416,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9934148764689499</v>
+        <v>-1.110432971871787</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6541469151525933</v>
+        <v>-0.7266960351294482</v>
       </c>
       <c r="H76" t="n">
         <v>-0.3399290069987793</v>
@@ -2430,10 +2430,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.5578141075950916</v>
+        <v>-0.5852249777064904</v>
       </c>
       <c r="C77" t="n">
-        <v>2.085938910220093</v>
+        <v>2.609372029349578</v>
       </c>
       <c r="D77" t="n">
         <v>1.076489562844311</v>
@@ -2442,10 +2442,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9330637013807687</v>
+        <v>1.019160681941083</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4877636603749454</v>
+        <v>-0.5281744843135601</v>
       </c>
       <c r="H77" t="n">
         <v>2.79212216878322</v>
@@ -2456,10 +2456,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.495331600605511</v>
+        <v>-0.5207635510620772</v>
       </c>
       <c r="C78" t="n">
-        <v>0.301915686258271</v>
+        <v>0.3038028593778867</v>
       </c>
       <c r="D78" t="n">
         <v>-1.322773646092906</v>
@@ -2468,10 +2468,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.122708740754166</v>
+        <v>-1.253358720449832</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2698743747732728</v>
+        <v>0.3758075774373596</v>
       </c>
       <c r="H78" t="n">
         <v>1.74810511018922</v>
@@ -2482,10 +2482,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7765028820586238</v>
+        <v>-0.8108399709619364</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.725249200265202</v>
+        <v>-1.065128835292805</v>
       </c>
       <c r="D79" t="n">
         <v>0.8819547080656173</v>
@@ -2494,10 +2494,10 @@
         <v>0.433787553056013</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9416973307548637</v>
+        <v>-1.05326267244057</v>
       </c>
       <c r="G79" t="n">
-        <v>1.410788121820001</v>
+        <v>1.73709821160345</v>
       </c>
       <c r="H79" t="n">
         <v>0.5300852084962205</v>
@@ -2508,10 +2508,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1204365586680272</v>
+        <v>-0.1339949911955984</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1846361020949531</v>
+        <v>-0.3446384696766516</v>
       </c>
       <c r="D80" t="n">
         <v>0.6874198532869241</v>
@@ -2520,10 +2520,10 @@
         <v>1.2220916810562</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.153004758615046</v>
+        <v>-0.1814156061144948</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07080869495001531</v>
+        <v>0.1382907219969217</v>
       </c>
       <c r="H80" t="n">
         <v>-0.9489389578452792</v>
@@ -2534,10 +2534,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3391253331315594</v>
+        <v>-0.3596099844510444</v>
       </c>
       <c r="C81" t="n">
-        <v>1.220957953147694</v>
+        <v>1.528636480925348</v>
       </c>
       <c r="D81" t="n">
         <v>-1.322773646092906</v>
@@ -2546,10 +2546,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7261935185244228</v>
+        <v>0.7904794842162112</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.8264724290294428</v>
+        <v>-0.9323076413316181</v>
       </c>
       <c r="H81" t="n">
         <v>-0.2529275854492793</v>
@@ -2560,10 +2560,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B82" t="n">
-        <v>1.191696088113166</v>
+        <v>1.219694968337077</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1846361020949531</v>
+        <v>-0.3446384696766516</v>
       </c>
       <c r="D82" t="n">
         <v>-1.322773646092906</v>
@@ -2572,10 +2572,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.2047223043291326</v>
+        <v>-0.2385859055457132</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2560155555060787</v>
+        <v>-0.2516623242485729</v>
       </c>
       <c r="H82" t="n">
         <v>0.2690809438477206</v>
@@ -2586,10 +2586,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5265728541003013</v>
+        <v>-0.5529942643842838</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D83" t="n">
         <v>1.076489562844311</v>
@@ -2598,10 +2598,10 @@
         <v>-0.1169454678756245</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2090180613835589</v>
+        <v>0.2187764899040312</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1213178972932299</v>
+        <v>0.1985561927803164</v>
       </c>
       <c r="H83" t="n">
         <v>-0.9489389578452792</v>
@@ -2612,10 +2612,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.432569205449221</v>
+        <v>-1.487684950728274</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D84" t="n">
         <v>0.23350519213664</v>
@@ -2624,10 +2624,10 @@
         <v>-0.2141336480400312</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2952280093287837</v>
+        <v>-0.3386339295503445</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2946402396508898</v>
+        <v>-0.2977476842594042</v>
       </c>
       <c r="H84" t="n">
         <v>0.008076679199220628</v>
@@ -2638,10 +2638,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4419060042381985</v>
+        <v>0.4461578486041198</v>
       </c>
       <c r="C85" t="n">
-        <v>1.329080572781744</v>
+        <v>1.672734554048579</v>
       </c>
       <c r="D85" t="n">
         <v>1.66009412718039</v>
@@ -2650,10 +2650,10 @@
         <v>0.7577481536040351</v>
       </c>
       <c r="F85" t="n">
-        <v>1.114075111380071</v>
+        <v>1.219256729950346</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5501573809165634</v>
+        <v>-0.6026200658695182</v>
       </c>
       <c r="H85" t="n">
         <v>-0.6009332716472792</v>
@@ -2664,10 +2664,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.05795405167844655</v>
+        <v>-0.06953356455118526</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D86" t="n">
         <v>-0.1555645174207464</v>
@@ -2676,10 +2676,10 @@
         <v>0.1854177593025294</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3771000849543393</v>
+        <v>0.4045799630554893</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7601107504574136</v>
+        <v>0.9607371468056013</v>
       </c>
       <c r="H86" t="n">
         <v>-0.8619375362957792</v>
@@ -2690,10 +2690,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B87" t="n">
-        <v>2.066451185967295</v>
+        <v>2.122154941358862</v>
       </c>
       <c r="C87" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D87" t="n">
         <v>0.1038152889508445</v>
@@ -2702,10 +2702,10 @@
         <v>1.351675921275409</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5710408813821632</v>
+        <v>0.6189685859225568</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1817373167660574</v>
+        <v>-0.1630366319200515</v>
       </c>
       <c r="H87" t="n">
         <v>0.2690809438477206</v>
@@ -2716,10 +2716,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9730073136496339</v>
+        <v>0.9940799750816315</v>
       </c>
       <c r="C88" t="n">
-        <v>1.004712713879595</v>
+        <v>1.240440334678886</v>
       </c>
       <c r="D88" t="n">
         <v>1.530404223994595</v>
@@ -2728,10 +2728,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F88" t="n">
-        <v>2.329437435661101</v>
+        <v>2.562758766583969</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.392687514787718</v>
+        <v>-0.4147335981330524</v>
       </c>
       <c r="H88" t="n">
         <v>0.2690809438477206</v>
@@ -2742,10 +2742,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09825221579550503</v>
+        <v>0.09162000205984758</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.07651348246090327</v>
+        <v>-0.2005403965534209</v>
       </c>
       <c r="D89" t="n">
         <v>0.4928849985082309</v>
@@ -2754,10 +2754,10 @@
         <v>1.405669354700079</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1185123563839073</v>
+        <v>0.1187284658993993</v>
       </c>
       <c r="G89" t="n">
-        <v>1.205780182897542</v>
+        <v>1.49249130077673</v>
       </c>
       <c r="H89" t="n">
         <v>-0.2529275854492793</v>
@@ -2768,10 +2768,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.6827791215742529</v>
+        <v>-0.7141478309953166</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D90" t="n">
         <v>0.4280400469153331</v>
@@ -2780,10 +2780,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3857337143284348</v>
+        <v>-0.4386819535549759</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7908188744342325</v>
+        <v>-0.8897673090139279</v>
       </c>
       <c r="H90" t="n">
         <v>-0.07892474235027935</v>
@@ -2794,10 +2794,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.057674163511737</v>
+        <v>-1.100916390861795</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.6171265806311522</v>
+        <v>-0.9210307621695745</v>
       </c>
       <c r="D91" t="n">
         <v>-0.2852544206065419</v>
@@ -2806,10 +2806,10 @@
         <v>-0.2465297080948333</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09265358352686469</v>
+        <v>0.09014331618379094</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9007506677694641</v>
+        <v>-1.02093333366014</v>
       </c>
       <c r="H91" t="n">
         <v>-0.6879346931967791</v>
@@ -2820,10 +2820,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.8702266425429948</v>
+        <v>-0.907532110928556</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D92" t="n">
         <v>0.2983501437295377</v>
@@ -2832,10 +2832,10 @@
         <v>0.1854177593025294</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4245218736139997</v>
+        <v>-0.4815596781283895</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1866827473844487</v>
+        <v>0.2765468020294154</v>
       </c>
       <c r="H92" t="n">
         <v>-0.9489389578452792</v>
@@ -2846,10 +2846,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.9014678960377851</v>
+        <v>-0.9397628242507626</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5722222353433956</v>
+        <v>0.6640480421859635</v>
       </c>
       <c r="D93" t="n">
         <v>-1.322773646092906</v>
@@ -2858,10 +2858,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F93" t="n">
-        <v>1.320945294236417</v>
+        <v>1.447937927675218</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6898004697478035</v>
+        <v>-0.7692363674471386</v>
       </c>
       <c r="H93" t="n">
         <v>-0.3399290069987793</v>
@@ -2872,10 +2872,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.463810458944011</v>
+        <v>-1.519915664050481</v>
       </c>
       <c r="C94" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D94" t="n">
         <v>-1.322773646092906</v>
@@ -2884,10 +2884,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.135255778599698</v>
+        <v>-2.67546991880138</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.090902958943919</v>
+        <v>-1.247815106021155</v>
       </c>
       <c r="H94" t="n">
         <v>-0.9489389578452792</v>
@@ -2898,10 +2898,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.02671279818365624</v>
+        <v>-0.0373028512289787</v>
       </c>
       <c r="C95" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D95" t="n">
         <v>-1.322773646092906</v>
@@ -2910,10 +2910,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2564398500432188</v>
+        <v>-0.2957562049769309</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8502414654262497</v>
+        <v>-0.9606678628767451</v>
       </c>
       <c r="H95" t="n">
         <v>0.4430837869467205</v>
@@ -2924,10 +2924,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06701096230071471</v>
+        <v>0.05938928873764102</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.157739678801401</v>
+        <v>-1.641521127785728</v>
       </c>
       <c r="D96" t="n">
         <v>0.7522648048798218</v>
@@ -2936,10 +2936,10 @@
         <v>0.9737218873027165</v>
       </c>
       <c r="F96" t="n">
-        <v>1.308015907807895</v>
+        <v>1.433645352817414</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1510291927892385</v>
+        <v>0.234006469711725</v>
       </c>
       <c r="H96" t="n">
         <v>-0.6009332716472792</v>
@@ -2950,10 +2950,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7230772856913114</v>
+        <v>0.736234268503979</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6803448549774453</v>
+        <v>0.8081461153091942</v>
       </c>
       <c r="D97" t="n">
         <v>1.271024417623004</v>
@@ -2962,10 +2962,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F97" t="n">
-        <v>1.204580816379721</v>
+        <v>1.319304753954977</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4095174636045127</v>
+        <v>0.5424238790149798</v>
       </c>
       <c r="H97" t="n">
         <v>-0.4269304285482792</v>
@@ -2976,10 +2976,10 @@
         <v>1.588045858444455</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4640903471107207</v>
+        <v>-0.4885328377398707</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.9414944395333017</v>
+        <v>-1.353324981539267</v>
       </c>
       <c r="D98" t="n">
         <v>-1.322773646092906</v>
@@ -2988,10 +2988,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1012872129009598</v>
+        <v>-0.124245306683277</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2649289441548813</v>
+        <v>-0.2622974073279955</v>
       </c>
       <c r="H98" t="n">
         <v>0.7910894731447204</v>
@@ -3002,10 +3002,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.182639177490898</v>
+        <v>-1.229839244150622</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.238697411911978</v>
+        <v>-0.4166875062382669</v>
       </c>
       <c r="D99" t="n">
         <v>0.4928849985082309</v>
@@ -3014,10 +3014,10 @@
         <v>-0.09534809450575639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6227584270962495</v>
+        <v>0.6761388853537746</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4748823136957316</v>
+        <v>0.6204144882640787</v>
       </c>
       <c r="H99" t="n">
         <v>-0.7749361147462792</v>
@@ -3028,10 +3028,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B100" t="n">
-        <v>1.754038651019392</v>
+        <v>1.799847808136796</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D100" t="n">
         <v>0.5577299501011287</v>
@@ -3040,10 +3040,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3383119256687749</v>
+        <v>0.3617022384820762</v>
       </c>
       <c r="G100" t="n">
-        <v>1.79109270416891</v>
+        <v>2.19086175632548</v>
       </c>
       <c r="H100" t="n">
         <v>-1.035940379394779</v>
@@ -3054,10 +3054,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.838705500881495</v>
+        <v>-1.90668422391696</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D101" t="n">
         <v>-1.322773646092906</v>
@@ -3066,10 +3066,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0797241970983429</v>
+        <v>0.07585074132598625</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2322465191092718</v>
+        <v>-0.223302102703446</v>
       </c>
       <c r="H101" t="n">
         <v>0.7040880515952205</v>
@@ -3080,10 +3080,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B102" t="n">
-        <v>1.347902355587118</v>
+        <v>1.38084853494811</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6803448549774453</v>
+        <v>0.8081461153091942</v>
       </c>
       <c r="D102" t="n">
         <v>1.465559272401697</v>
@@ -3092,10 +3092,10 @@
         <v>-0.08454940782082232</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1055829699553855</v>
+        <v>0.1044358910415946</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3808029965893145</v>
+        <v>-0.400553487360489</v>
       </c>
       <c r="H102" t="n">
         <v>1.48710084554072</v>
@@ -3106,10 +3106,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.338845444964849</v>
+        <v>-1.390992810761654</v>
       </c>
       <c r="C103" t="n">
-        <v>1.004712713879595</v>
+        <v>1.240440334678886</v>
       </c>
       <c r="D103" t="n">
         <v>0.5577299501011287</v>
@@ -3118,10 +3118,10 @@
         <v>-0.3761139483140422</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6356878135247713</v>
+        <v>0.6904314602115793</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.1044879484764351</v>
+        <v>-0.07086591189838906</v>
       </c>
       <c r="H103" t="n">
         <v>-1.035940379394779</v>
@@ -3132,10 +3132,10 @@
         <v>2.796298841201451</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1607347227850857</v>
+        <v>0.1560814287042607</v>
       </c>
       <c r="C104" t="n">
-        <v>1.112835333513644</v>
+        <v>1.384538407802117</v>
       </c>
       <c r="D104" t="n">
         <v>-1.322773646092906</v>
@@ -3144,10 +3144,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F104" t="n">
-        <v>1.476097931378675</v>
+        <v>1.619448825968872</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3382103544140921</v>
+        <v>0.4573432143795991</v>
       </c>
       <c r="H104" t="n">
         <v>0.7910894731447204</v>
@@ -3158,10 +3158,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B105" t="n">
-        <v>0.785559792680892</v>
+        <v>0.8006956951483921</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D105" t="n">
         <v>0.9467996596585151</v>
@@ -3170,10 +3170,10 @@
         <v>1.286883801165804</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8037698370955526</v>
+        <v>0.8762349333630384</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.4164565511845248</v>
+        <v>-0.4430938196781793</v>
       </c>
       <c r="H105" t="n">
         <v>-0.3399290069987793</v>
@@ -3184,10 +3184,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B106" t="n">
-        <v>1.160454834618376</v>
+        <v>1.187464255014871</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D106" t="n">
         <v>-1.322773646092906</v>
@@ -3196,10 +3196,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1185123563839073</v>
+        <v>0.1187284658993993</v>
       </c>
       <c r="G106" t="n">
-        <v>0.9918588553262805</v>
+        <v>1.237249306870589</v>
       </c>
       <c r="H106" t="n">
         <v>-0.1659261638997793</v>
@@ -3210,10 +3210,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2766428261419788</v>
+        <v>-0.2951485578066312</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8965900942455449</v>
+        <v>1.096342261555656</v>
       </c>
       <c r="D107" t="n">
         <v>1.400714320808799</v>
@@ -3222,10 +3222,10 @@
         <v>0.9197284538780461</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8296286099525952</v>
+        <v>0.9048200830786468</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.6630603038013958</v>
+        <v>-0.7373311182088709</v>
       </c>
       <c r="H107" t="n">
         <v>-0.4269304285482792</v>
@@ -3236,10 +3236,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6293535252069404</v>
+        <v>0.6395421285373593</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.6171265806311522</v>
+        <v>-0.9210307621695745</v>
       </c>
       <c r="D108" t="n">
         <v>0.8819547080656173</v>
@@ -3248,10 +3248,10 @@
         <v>0.5741704799601559</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.8511916257552126</v>
+        <v>-0.9532146484359381</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6828613821677912</v>
+        <v>0.8685664267839389</v>
       </c>
       <c r="H108" t="n">
         <v>-0.7749361147462792</v>
@@ -3262,10 +3262,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B109" t="n">
-        <v>1.629073637040231</v>
+        <v>1.670924954847969</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D109" t="n">
         <v>1.206179466030106</v>
@@ -3274,10 +3274,10 @@
         <v>1.189695621001398</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2348768342406015</v>
+        <v>0.2473616396196396</v>
       </c>
       <c r="G109" t="n">
-        <v>1.488037490109623</v>
+        <v>1.829268931625112</v>
       </c>
       <c r="H109" t="n">
         <v>-0.1659261638997793</v>
@@ -3288,10 +3288,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.276362937975269</v>
+        <v>-1.326531384117241</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6803448549774453</v>
+        <v>0.8081461153091942</v>
       </c>
       <c r="D110" t="n">
         <v>0.6874198532869241</v>
@@ -3300,10 +3300,10 @@
         <v>-0.05215334776602011</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2865943799546887</v>
+        <v>0.3045319390508585</v>
       </c>
       <c r="G110" t="n">
-        <v>2.444741205081098</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H110" t="n">
         <v>-0.5139318500977792</v>
@@ -3314,10 +3314,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3703665866263497</v>
+        <v>-0.3918406977732509</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5722222353433956</v>
+        <v>0.6640480421859635</v>
       </c>
       <c r="D111" t="n">
         <v>0.6874198532869241</v>
@@ -3326,10 +3326,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5063939492395553</v>
+        <v>0.5475057116335343</v>
       </c>
       <c r="G111" t="n">
-        <v>1.954504829396957</v>
+        <v>2.385838279448228</v>
       </c>
       <c r="H111" t="n">
         <v>0.8780908946942204</v>
@@ -3340,10 +3340,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7452616285638335</v>
+        <v>-0.7786092576397298</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D112" t="n">
         <v>0.1686602405437422</v>
@@ -3352,10 +3352,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.4891688057566077</v>
+        <v>-0.553022552417412</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.0777477825300274</v>
+        <v>-0.03896066266012129</v>
       </c>
       <c r="H112" t="n">
         <v>-0.9489389578452792</v>
@@ -3366,10 +3366,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B113" t="n">
-        <v>1.691556144029811</v>
+        <v>1.735386381492383</v>
       </c>
       <c r="C113" t="n">
-        <v>1.004712713879595</v>
+        <v>1.240440334678886</v>
       </c>
       <c r="D113" t="n">
         <v>-1.322773646092906</v>
@@ -3378,10 +3378,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.174426286468253</v>
+        <v>-1.310529019881051</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.4253699398333274</v>
+        <v>-0.453728902757602</v>
       </c>
       <c r="H113" t="n">
         <v>-0.9489389578452792</v>
@@ -3392,10 +3392,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.495331600605511</v>
+        <v>-0.5207635510620772</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D114" t="n">
         <v>-1.322773646092906</v>
@@ -3404,10 +3404,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F114" t="n">
-        <v>-4.135255778599698</v>
+        <v>-2.67546991880138</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.4877636603749454</v>
+        <v>-0.5281744843135601</v>
       </c>
       <c r="H114" t="n">
         <v>-0.7749361147462792</v>
@@ -3418,10 +3418,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B115" t="n">
-        <v>1.441626116071489</v>
+        <v>1.47754067491473</v>
       </c>
       <c r="C115" t="n">
-        <v>1.977816290586043</v>
+        <v>2.537322992787963</v>
       </c>
       <c r="D115" t="n">
         <v>1.66009412718039</v>
@@ -3430,10 +3430,10 @@
         <v>1.686435208508365</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7261935185244228</v>
+        <v>0.7904794842162112</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.903721797319065</v>
+        <v>-1.024478361353281</v>
       </c>
       <c r="H115" t="n">
         <v>0.8780908946942204</v>
@@ -3444,10 +3444,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.2766428261419788</v>
+        <v>-0.2951485578066312</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D116" t="n">
         <v>0.6225749016940264</v>
@@ -3456,10 +3456,10 @@
         <v>1.092507440836991</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3124531528117313</v>
+        <v>0.3331170887664668</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1747982291860453</v>
+        <v>0.2623666912568519</v>
       </c>
       <c r="H116" t="n">
         <v>-0.6879346931967791</v>
@@ -3470,10 +3470,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B117" t="n">
-        <v>0.09825221579550503</v>
+        <v>0.09162000205984758</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D117" t="n">
         <v>0.7522648048798218</v>
@@ -3482,10 +3482,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F117" t="n">
-        <v>0.4934645628110335</v>
+        <v>0.5332131367757296</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1332024154916333</v>
+        <v>0.2127363035528798</v>
       </c>
       <c r="H117" t="n">
         <v>-1.035940379394779</v>
@@ -3496,10 +3496,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B118" t="n">
-        <v>1.285419848597537</v>
+        <v>1.316387108303697</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.9414944395333017</v>
+        <v>-1.353324981539267</v>
       </c>
       <c r="D118" t="n">
         <v>1.141334514437208</v>
@@ -3508,10 +3508,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6744759728103367</v>
+        <v>0.7333091847849934</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5432182933365514</v>
+        <v>0.7019501252063186</v>
       </c>
       <c r="H118" t="n">
         <v>-0.7749361147462792</v>
@@ -3522,10 +3522,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3391253331315594</v>
+        <v>-0.3596099844510444</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.1846361020949531</v>
+        <v>-0.3446384696766516</v>
       </c>
       <c r="D119" t="n">
         <v>-1.322773646092906</v>
@@ -3534,10 +3534,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.01078150790130865</v>
+        <v>-0.02419728267864566</v>
       </c>
       <c r="G119" t="n">
-        <v>0.005443844858796439</v>
+        <v>0.0603001127478227</v>
       </c>
       <c r="H119" t="n">
         <v>-0.3399290069987793</v>
@@ -3548,10 +3548,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9327091495325754</v>
+        <v>-0.9719935375729691</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.4008813413630526</v>
+        <v>-0.6328346159231131</v>
       </c>
       <c r="D120" t="n">
         <v>-1.322773646092906</v>
@@ -3560,10 +3560,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.6055332836133019</v>
+        <v>-0.6816557261376524</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1658848405372427</v>
+        <v>0.2517316081774293</v>
       </c>
       <c r="H120" t="n">
         <v>-0.9489389578452792</v>
@@ -3574,10 +3574,10 @@
         <v>1.890109104133704</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1829190656576078</v>
+        <v>-0.1984564178400115</v>
       </c>
       <c r="C121" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D121" t="n">
         <v>-1.322773646092906</v>
@@ -3586,10 +3586,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4288176306684255</v>
+        <v>0.4617502624867071</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.9958268133566915</v>
+        <v>-1.134374219840647</v>
       </c>
       <c r="H121" t="n">
         <v>-0.3399290069987793</v>
@@ -3600,10 +3600,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.495331600605511</v>
+        <v>-0.5207635510620772</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.6171265806311522</v>
+        <v>-0.9210307621695745</v>
       </c>
       <c r="D122" t="n">
         <v>-1.322773646092906</v>
@@ -3612,10 +3612,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.9934148764689499</v>
+        <v>-1.110432971871787</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.8383569472278463</v>
+        <v>-0.9464877521041817</v>
       </c>
       <c r="H122" t="n">
         <v>-1.035940379394779</v>
@@ -3626,10 +3626,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.6515378680794626</v>
+        <v>-0.68191711767311</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D123" t="n">
         <v>2.049163836737776</v>
@@ -3638,10 +3638,10 @@
         <v>-0.192536274670163</v>
       </c>
       <c r="F123" t="n">
-        <v>1.101145724951549</v>
+        <v>1.204964155092541</v>
       </c>
       <c r="G123" t="n">
-        <v>0.6174965320765727</v>
+        <v>0.7905758175348403</v>
       </c>
       <c r="H123" t="n">
         <v>-0.6879346931967791</v>
@@ -3652,10 +3652,10 @@
         <v>1.588045858444455</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.05795405167844655</v>
+        <v>-0.06953356455118526</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5722222353433956</v>
+        <v>0.6640480421859635</v>
       </c>
       <c r="D124" t="n">
         <v>0.9467996596585151</v>
@@ -3664,10 +3664,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.3857337143284348</v>
+        <v>-0.4386819535549759</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.6125511014581813</v>
+        <v>-0.6770656474254761</v>
       </c>
       <c r="H124" t="n">
         <v>-0.3399290069987793</v>
@@ -3678,10 +3678,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9639504030273658</v>
+        <v>-1.004224250895176</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.4008813413630526</v>
+        <v>-0.6328346159231131</v>
       </c>
       <c r="D125" t="n">
         <v>-0.1555645174207464</v>
@@ -3690,10 +3690,10 @@
         <v>-0.1709389013002949</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.889979785040777</v>
+        <v>-0.9960923730093512</v>
       </c>
       <c r="G125" t="n">
-        <v>2.373434095890678</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H125" t="n">
         <v>-0.6879346931967791</v>
@@ -3704,10 +3704,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9417660601548435</v>
+        <v>0.961849261759425</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D126" t="n">
         <v>-1.322773646092906</v>
@@ -3716,10 +3716,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.7606859207555611</v>
+        <v>-0.8531666244313062</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.8621259836246531</v>
+        <v>-0.9748479736493085</v>
       </c>
       <c r="H126" t="n">
         <v>-0.9489389578452792</v>
@@ -3730,10 +3730,10 @@
         <v>1.890109104133704</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.6202966145846722</v>
+        <v>-0.6496864043509035</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D127" t="n">
         <v>1.789784030366186</v>
@@ -3742,10 +3742,10 @@
         <v>1.135702187576727</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1185123563839073</v>
+        <v>0.1187284658993993</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.8858950200214598</v>
+        <v>-1.003208195194435</v>
       </c>
       <c r="H127" t="n">
         <v>2.61811932568422</v>
@@ -3756,10 +3756,10 @@
         <v>1.890109104133704</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1829190656576078</v>
+        <v>-0.1984564178400115</v>
       </c>
       <c r="C128" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D128" t="n">
         <v>-1.322773646092906</v>
@@ -3768,10 +3768,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F128" t="n">
-        <v>-4.135255778599698</v>
+        <v>-2.67546991880138</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.618493360557383</v>
+        <v>-0.6841557028117579</v>
       </c>
       <c r="H128" t="n">
         <v>-0.2529275854492793</v>
@@ -3782,10 +3782,10 @@
         <v>2.192172349822953</v>
       </c>
       <c r="B129" t="n">
-        <v>1.066731074134005</v>
+        <v>1.090772115048251</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3559769960752959</v>
+        <v>0.3758518959395021</v>
       </c>
       <c r="D129" t="n">
         <v>0.4928849985082309</v>
@@ -3794,10 +3794,10 @@
         <v>0.8117415870287055</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1702299020979935</v>
+        <v>0.1758987653306171</v>
       </c>
       <c r="G129" t="n">
-        <v>2.62598010760675</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H129" t="n">
         <v>1.57410226709022</v>
@@ -3808,10 +3808,10 @@
         <v>2.192172349822953</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4419060042381985</v>
+        <v>0.4461578486041198</v>
       </c>
       <c r="C130" t="n">
-        <v>-3.752682550018597</v>
+        <v>-2.578158603086728</v>
       </c>
       <c r="D130" t="n">
         <v>-1.322773646092906</v>
@@ -3820,10 +3820,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F130" t="n">
-        <v>2.626813323517097</v>
+        <v>2.641367928301894</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3233547066660878</v>
+        <v>0.4396180759138947</v>
       </c>
       <c r="H130" t="n">
         <v>0.6170866300457205</v>
@@ -3834,10 +3834,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B131" t="n">
-        <v>2.128933692956875</v>
+        <v>2.186616368003274</v>
       </c>
       <c r="C131" t="n">
-        <v>2.194061529854142</v>
+        <v>2.609372029349578</v>
       </c>
       <c r="D131" t="n">
         <v>0.6874198532869241</v>
@@ -3846,10 +3846,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.4503806464710428</v>
+        <v>-0.5101448278439984</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6264099207253753</v>
+        <v>0.8012109006142628</v>
       </c>
       <c r="H131" t="n">
         <v>0.3560823653972205</v>
@@ -3860,10 +3860,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B132" t="n">
-        <v>1.941486171988134</v>
+        <v>1.993232088070035</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2927587217290029</v>
+        <v>-0.4887365427998823</v>
       </c>
       <c r="D132" t="n">
         <v>-1.322773646092906</v>
@@ -3872,10 +3872,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F132" t="n">
-        <v>-1.122708740754166</v>
+        <v>-1.253358720449832</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6026408843285684</v>
+        <v>0.772850679069136</v>
       </c>
       <c r="H132" t="n">
         <v>-0.07892474235027935</v>
@@ -3886,10 +3886,10 @@
         <v>2.494235595512202</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9417660601548435</v>
+        <v>0.961849261759425</v>
       </c>
       <c r="C133" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D133" t="n">
         <v>1.271024417623004</v>
@@ -3898,10 +3898,10 @@
         <v>2.118382675905728</v>
       </c>
       <c r="F133" t="n">
-        <v>1.26922774852233</v>
+        <v>1.390767628244</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8106199528006282</v>
+        <v>1.021002617588996</v>
       </c>
       <c r="H133" t="n">
         <v>0.4430837869467205</v>
@@ -3912,10 +3912,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3703665866263497</v>
+        <v>-0.3918406977732509</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D134" t="n">
         <v>-0.8040140333497238</v>
@@ -3924,10 +3924,10 @@
         <v>1.157299560946596</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.8511916257552126</v>
+        <v>-0.9532146484359381</v>
       </c>
       <c r="G134" t="n">
-        <v>1.419701510468803</v>
+        <v>1.747733294682872</v>
       </c>
       <c r="H134" t="n">
         <v>-1.035940379394779</v>
@@ -3938,10 +3938,10 @@
         <v>2.192172349822953</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4731472577329888</v>
+        <v>0.4783885619263264</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7884674746114951</v>
+        <v>0.952244188432425</v>
       </c>
       <c r="D135" t="n">
         <v>0.9467996596585151</v>
@@ -3950,10 +3950,10 @@
         <v>0.595767853330024</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.4762394193280859</v>
+        <v>-0.5387299775596073</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.6214644901069838</v>
+        <v>-0.6877007305048988</v>
       </c>
       <c r="H135" t="n">
         <v>0.7910894731447204</v>
@@ -3964,10 +3964,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B136" t="n">
-        <v>1.879003664998553</v>
+        <v>1.928770661425622</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D136" t="n">
         <v>1.400714320808799</v>
@@ -3976,10 +3976,10 @@
         <v>2.355953782974277</v>
       </c>
       <c r="F136" t="n">
-        <v>1.036498792808941</v>
+        <v>1.133501280803519</v>
       </c>
       <c r="G136" t="n">
-        <v>2.343722800394669</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H136" t="n">
         <v>-0.9489389578452792</v>
@@ -3990,10 +3990,10 @@
         <v>-0.2243336156910382</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.589055361089882</v>
+        <v>-0.6174556910286969</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D137" t="n">
         <v>-1.322773646092906</v>
@@ -4002,10 +4002,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.3210867821858269</v>
+        <v>-0.3672190792659534</v>
       </c>
       <c r="G137" t="n">
-        <v>-1.034451497501503</v>
+        <v>-1.180459579851479</v>
       </c>
       <c r="H137" t="n">
         <v>-0.07892474235027935</v>
@@ -4016,10 +4016,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.02671279818365624</v>
+        <v>-0.0373028512289787</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8965900942455449</v>
+        <v>1.096342261555656</v>
       </c>
       <c r="D138" t="n">
         <v>-1.322773646092906</v>
@@ -4028,10 +4028,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.4633100328995646</v>
+        <v>-0.5244374027018032</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.6244356196565847</v>
+        <v>-0.6912457581980397</v>
       </c>
       <c r="H138" t="n">
         <v>-0.9489389578452792</v>
@@ -4042,10 +4042,10 @@
         <v>2.796298841201451</v>
       </c>
       <c r="B139" t="n">
-        <v>1.160454834618376</v>
+        <v>1.187464255014871</v>
       </c>
       <c r="C139" t="n">
-        <v>2.410306769122242</v>
+        <v>2.609372029349578</v>
       </c>
       <c r="D139" t="n">
         <v>-1.322773646092906</v>
@@ -4054,10 +4054,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F139" t="n">
-        <v>1.333874680664938</v>
+        <v>1.462230502533022</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.6303778787557864</v>
+        <v>-0.6983358135843214</v>
       </c>
       <c r="H139" t="n">
         <v>0.9650923162437204</v>
@@ -4068,10 +4068,10 @@
         <v>0.9839193670659574</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9105248066600533</v>
+        <v>0.9296185484372184</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D140" t="n">
         <v>0.5577299501011287</v>
@@ -4080,10 +4080,10 @@
         <v>0.5525731065902878</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4158882442399047</v>
+        <v>0.4474576876289034</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6620634753205853</v>
+        <v>0.8437512329319529</v>
       </c>
       <c r="H140" t="n">
         <v>1.83510653173872</v>
@@ -4094,10 +4094,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.651257979912753</v>
+        <v>-1.71329994398372</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.4008813413630526</v>
+        <v>-0.6328346159231131</v>
       </c>
       <c r="D141" t="n">
         <v>-0.4797892753852351</v>
@@ -4106,10 +4106,10 @@
         <v>-0.6460811154373939</v>
       </c>
       <c r="F141" t="n">
-        <v>-1.536449106466857</v>
+        <v>-1.710721115899576</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.6303778787557864</v>
+        <v>-0.6983358135843214</v>
       </c>
       <c r="H141" t="n">
         <v>-0.8619375362957792</v>
@@ -4120,10 +4120,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.2766428261419788</v>
+        <v>-0.2951485578066312</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1846361020949531</v>
+        <v>-0.3446384696766516</v>
       </c>
       <c r="D142" t="n">
         <v>0.1038152889508445</v>
@@ -4132,10 +4132,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.9029091714692988</v>
+        <v>-1.010384947867156</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.4818214012757437</v>
+        <v>-0.5210844289272784</v>
       </c>
       <c r="H142" t="n">
         <v>-0.7749361147462792</v>
@@ -4146,10 +4146,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9639504030273658</v>
+        <v>-1.004224250895176</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D143" t="n">
         <v>-1.322773646092906</v>
@@ -4158,10 +4158,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F143" t="n">
-        <v>-1.096849967897123</v>
+        <v>-1.224773570734223</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.8264724290294428</v>
+        <v>-0.9323076413316181</v>
       </c>
       <c r="H143" t="n">
         <v>-0.6879346931967791</v>
@@ -4172,10 +4172,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5668710182173597</v>
+        <v>0.5750807018929461</v>
       </c>
       <c r="C144" t="n">
-        <v>0.301915686258271</v>
+        <v>0.3038028593778867</v>
       </c>
       <c r="D144" t="n">
         <v>-1.322773646092906</v>
@@ -4184,10 +4184,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.825332852898169</v>
+        <v>-0.9246294987203287</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.8977795382198632</v>
+        <v>-1.017388305966999</v>
       </c>
       <c r="H144" t="n">
         <v>-0.3399290069987793</v>
@@ -4198,10 +4198,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5668710182173597</v>
+        <v>0.5750807018929461</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.4008813413630526</v>
+        <v>-0.6328346159231131</v>
       </c>
       <c r="D145" t="n">
         <v>1.335869369215901</v>
@@ -4210,10 +4210,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F145" t="n">
-        <v>1.127004497808593</v>
+        <v>1.233549304808151</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1985672655828522</v>
+        <v>0.2907269128019788</v>
       </c>
       <c r="H145" t="n">
         <v>-1.035940379394779</v>
@@ -4224,10 +4224,10 @@
         <v>-1.130523352758785</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.8702266425429948</v>
+        <v>-0.907532110928556</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.5090039609971024</v>
+        <v>-0.7769326890463438</v>
       </c>
       <c r="D146" t="n">
         <v>-1.322773646092906</v>
@@ -4236,10 +4236,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4288176306684255</v>
+        <v>0.4617502624867071</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.6125511014581813</v>
+        <v>-0.6770656474254761</v>
       </c>
       <c r="H146" t="n">
         <v>-0.6879346931967791</v>
@@ -4250,10 +4250,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.151397923996108</v>
+        <v>-1.197608530828415</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D147" t="n">
         <v>0.6874198532869241</v>
@@ -4262,10 +4262,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8166992235240735</v>
+        <v>0.8905275082208421</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.0361519688356154</v>
+        <v>0.0106697250438508</v>
       </c>
       <c r="H147" t="n">
         <v>0.5300852084962205</v>
@@ -4276,10 +4276,10 @@
         <v>0.3797928756874596</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.120156670501317</v>
+        <v>-1.165377817506209</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2478543764412461</v>
+        <v>0.2317538228162713</v>
       </c>
       <c r="D148" t="n">
         <v>0.1038152889508445</v>
@@ -4288,10 +4288,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.3857337143284348</v>
+        <v>-0.4386819535549759</v>
       </c>
       <c r="G148" t="n">
-        <v>2.24270439570824</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H148" t="n">
         <v>-0.07892474235027935</v>
@@ -4302,10 +4302,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.495051712438801</v>
+        <v>-1.552146377372687</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.049617059167351</v>
+        <v>-1.497423054662497</v>
       </c>
       <c r="D149" t="n">
         <v>-0.6743241301639283</v>
@@ -4314,10 +4314,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F149" t="n">
-        <v>-1.161496900039731</v>
+        <v>-1.296236445023246</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.6571180447021941</v>
+        <v>-0.7302410628225892</v>
       </c>
       <c r="H149" t="n">
         <v>-1.035940379394779</v>
@@ -4328,10 +4328,10 @@
         <v>0.07772962999821068</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2766428261419788</v>
+        <v>-0.2951485578066312</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4640996157093457</v>
+        <v>0.5199499690627328</v>
       </c>
       <c r="D150" t="n">
         <v>1.271024417623004</v>
@@ -4340,10 +4340,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9589224742378113</v>
+        <v>1.047745831656692</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.6927715992974044</v>
+        <v>-0.7727813951402795</v>
       </c>
       <c r="H150" t="n">
         <v>0.4430837869467205</v>
@@ -4354,10 +4354,10 @@
         <v>1.588045858444455</v>
       </c>
       <c r="B151" t="n">
-        <v>1.379143609081908</v>
+        <v>1.413079248270317</v>
       </c>
       <c r="C151" t="n">
-        <v>1.004712713879595</v>
+        <v>1.240440334678886</v>
       </c>
       <c r="D151" t="n">
         <v>-1.322773646092906</v>
@@ -4366,10 +4366,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.2047223043291326</v>
+        <v>-0.2385859055457132</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.496677049023748</v>
+        <v>-0.5388095673929827</v>
       </c>
       <c r="H151" t="n">
         <v>1.40009942399122</v>
@@ -4380,10 +4380,10 @@
         <v>-0.8284601070695361</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.37008669845964</v>
+        <v>-1.423223524083861</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.725249200265202</v>
+        <v>-1.065128835292805</v>
       </c>
       <c r="D152" t="n">
         <v>0.6225749016940264</v>
@@ -4392,10 +4392,10 @@
         <v>-0.2033349613550971</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1702299020979935</v>
+        <v>0.1758987653306171</v>
       </c>
       <c r="G152" t="n">
-        <v>2.322924893547463</v>
+        <v>2.64462530104751</v>
       </c>
       <c r="H152" t="n">
         <v>-0.7749361147462792</v>
@@ -4406,10 +4406,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.8077441355534142</v>
+        <v>-0.8430706842841429</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1397317568071963</v>
+        <v>0.0876557496930406</v>
       </c>
       <c r="D153" t="n">
         <v>-1.322773646092906</v>
@@ -4418,10 +4418,10 @@
         <v>-0.808061415711405</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6227584270962495</v>
+        <v>0.6761388853537746</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04703965855320844</v>
+        <v>0.1099305004517948</v>
       </c>
       <c r="H153" t="n">
         <v>2.09611079638722</v>
@@ -4432,10 +4432,10 @@
         <v>-0.5263968613802872</v>
       </c>
       <c r="B154" t="n">
-        <v>0.785559792680892</v>
+        <v>0.8006956951483921</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D154" t="n">
         <v>1.141334514437208</v>
@@ -4444,10 +4444,10 @@
         <v>2.627270785933246</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.5150275786136508</v>
+        <v>-0.5816077021330209</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.392687514787718</v>
+        <v>-0.4147335981330524</v>
       </c>
       <c r="H154" t="n">
         <v>-0.3399290069987793</v>
@@ -4458,10 +4458,10 @@
         <v>1.285982612755206</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.463810458944011</v>
+        <v>-1.519915664050481</v>
       </c>
       <c r="C155" t="n">
-        <v>0.03160913717314653</v>
+        <v>-0.05644232343019013</v>
       </c>
       <c r="D155" t="n">
         <v>1.271024417623004</v>
@@ -4470,10 +4470,10 @@
         <v>-0.2789257681496355</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4288176306684255</v>
+        <v>0.4617502624867071</v>
       </c>
       <c r="G155" t="n">
-        <v>0.7006881594653964</v>
+        <v>0.8898365929427841</v>
       </c>
       <c r="H155" t="n">
         <v>0.5300852084962205</v>
